--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Fzd2</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H2">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.4937140227409</v>
+        <v>0.08106100000000001</v>
       </c>
       <c r="N2">
-        <v>15.4937140227409</v>
+        <v>0.243183</v>
       </c>
       <c r="O2">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="P2">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="Q2">
-        <v>161.1023792192521</v>
+        <v>0.8458101988433334</v>
       </c>
       <c r="R2">
-        <v>161.1023792192521</v>
+        <v>7.61229178959</v>
       </c>
       <c r="S2">
-        <v>0.8578426008864789</v>
+        <v>0.004277541564968616</v>
       </c>
       <c r="T2">
-        <v>0.8578426008864789</v>
+        <v>0.004277541564968617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,433 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H3">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56754104518179</v>
+        <v>15.70489833333333</v>
       </c>
       <c r="N3">
-        <v>2.56754104518179</v>
+        <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="P3">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="Q3">
-        <v>26.69708312124233</v>
+        <v>163.8687307352611</v>
       </c>
       <c r="R3">
-        <v>26.69708312124233</v>
+        <v>1474.81857661735</v>
       </c>
       <c r="S3">
-        <v>0.142157399113521</v>
+        <v>0.8287383007172335</v>
       </c>
       <c r="T3">
-        <v>0.142157399113521</v>
+        <v>0.8287383007172336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10.43424333333333</v>
+      </c>
+      <c r="H4">
+        <v>31.30273</v>
+      </c>
+      <c r="I4">
+        <v>0.9711091978791583</v>
+      </c>
+      <c r="J4">
+        <v>0.9711091978791584</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.03299466666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.098984</v>
+      </c>
+      <c r="O4">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="P4">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="Q4">
+        <v>0.3442743807022222</v>
+      </c>
+      <c r="R4">
+        <v>3.09846942632</v>
+      </c>
+      <c r="S4">
+        <v>0.00174110926449157</v>
+      </c>
+      <c r="T4">
+        <v>0.00174110926449157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10.43424333333333</v>
+      </c>
+      <c r="H5">
+        <v>31.30273</v>
+      </c>
+      <c r="I5">
+        <v>0.9711091978791583</v>
+      </c>
+      <c r="J5">
+        <v>0.9711091978791584</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.583925666666666</v>
+      </c>
+      <c r="N5">
+        <v>7.751776999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.140408768272661</v>
+      </c>
+      <c r="P5">
+        <v>0.1404087682726611</v>
+      </c>
+      <c r="Q5">
+        <v>26.96130916124555</v>
+      </c>
+      <c r="R5">
+        <v>242.6517824512099</v>
+      </c>
+      <c r="S5">
+        <v>0.1363522463324645</v>
+      </c>
+      <c r="T5">
+        <v>0.1363522463324645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.310422</v>
+      </c>
+      <c r="H6">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.08106100000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.243183</v>
+      </c>
+      <c r="O6">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="P6">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="Q6">
+        <v>0.025163117742</v>
+      </c>
+      <c r="R6">
+        <v>0.226468059678</v>
+      </c>
+      <c r="S6">
+        <v>0.0001272581983437887</v>
+      </c>
+      <c r="T6">
+        <v>0.0001272581983437887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.310422</v>
+      </c>
+      <c r="H7">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.70489833333333</v>
+      </c>
+      <c r="N7">
+        <v>47.114695</v>
+      </c>
+      <c r="O7">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="P7">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="Q7">
+        <v>4.875145950429999</v>
+      </c>
+      <c r="R7">
+        <v>43.87631355386999</v>
+      </c>
+      <c r="S7">
+        <v>0.02465522343756392</v>
+      </c>
+      <c r="T7">
+        <v>0.02465522343756392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.310422</v>
+      </c>
+      <c r="H8">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.03299466666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.098984</v>
+      </c>
+      <c r="O8">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="P8">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="Q8">
+        <v>0.010242270416</v>
+      </c>
+      <c r="R8">
+        <v>0.09218043374399999</v>
+      </c>
+      <c r="S8">
+        <v>5.17985447373442E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.179854473734421E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.310422</v>
+      </c>
+      <c r="H9">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.583925666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.751776999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.140408768272661</v>
+      </c>
+      <c r="P9">
+        <v>0.1404087682726611</v>
+      </c>
+      <c r="Q9">
+        <v>0.8021073732979997</v>
+      </c>
+      <c r="R9">
+        <v>7.218966359681998</v>
+      </c>
+      <c r="S9">
+        <v>0.004056521940196554</v>
+      </c>
+      <c r="T9">
+        <v>0.004056521940196555</v>
       </c>
     </row>
   </sheetData>
